--- a/Fund Calculator.xlsx
+++ b/Fund Calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchoi02\Desktop\Github\Fund_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0292BA6-3BE5-4461-BCCA-54AF4C464AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA41C46-FF0A-435A-9A9A-A7BBEF4EE9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{CC186723-87AC-486E-8944-9BF126EE79E9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{CC186723-87AC-486E-8944-9BF126EE79E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Pension (before Jan 1, 2022)" sheetId="1" r:id="rId1"/>
@@ -3627,7 +3627,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3868,8 +3868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E81D8C3-0D58-4DA0-ABC8-B90EEA5A988D}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScale="95" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4717,7 +4717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30A076F-2A31-48E2-8878-A835510682FE}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -8588,9 +8588,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A7CC9E-9876-428D-BF66-37EA5AD968FB}">
   <dimension ref="A1:AC818"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A750" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O786" sqref="O786"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A755" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T786" sqref="T786"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -73711,7 +73711,7 @@
         <v>44936</v>
       </c>
       <c r="S775" s="3">
-        <f t="shared" ref="S775:S784" si="1440">B775+K775</f>
+        <f t="shared" ref="S775:S785" si="1440">B775+K775</f>
         <v>90480.23000000001</v>
       </c>
       <c r="T775" s="50">
@@ -74476,18 +74476,89 @@
         <v>2.0125211238213314E-3</v>
       </c>
     </row>
-    <row r="785" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A785" s="37">
         <v>44950</v>
       </c>
+      <c r="B785" s="41">
+        <v>62319.14</v>
+      </c>
+      <c r="C785" s="3">
+        <v>51575.15</v>
+      </c>
+      <c r="D785" s="3">
+        <v>50450.74</v>
+      </c>
+      <c r="E785" s="3">
+        <f t="shared" ref="E785" si="1528">B785-D785</f>
+        <v>11868.400000000001</v>
+      </c>
+      <c r="F785" s="38">
+        <f t="shared" ref="F785" si="1529">B785/D785-1</f>
+        <v>0.23524729270571654</v>
+      </c>
+      <c r="G785" s="41">
+        <f t="shared" ref="G785" si="1530">B785-B784</f>
+        <v>39.089999999996508</v>
+      </c>
+      <c r="H785" s="38">
+        <f t="shared" ref="H785" si="1531">(B785)/B784-1</f>
+        <v>6.2764882173338421E-4</v>
+      </c>
       <c r="J785" s="37">
         <v>44950</v>
       </c>
+      <c r="K785" s="41">
+        <v>30077.34</v>
+      </c>
+      <c r="L785" s="58">
+        <v>28400</v>
+      </c>
+      <c r="M785" s="43">
+        <f t="shared" ref="M785" si="1532">K785-L785</f>
+        <v>1677.3400000000001</v>
+      </c>
+      <c r="N785" s="38">
+        <f t="shared" ref="N785" si="1533">K785/L785-1</f>
+        <v>5.9061267605633905E-2</v>
+      </c>
+      <c r="O785" s="43">
+        <f t="shared" ref="O785" si="1534">K785-K784</f>
+        <v>18.860000000000582</v>
+      </c>
+      <c r="P785" s="38">
+        <f t="shared" ref="P785" si="1535">K785/K784-1</f>
+        <v>6.2744357000088513E-4</v>
+      </c>
       <c r="R785" s="37">
         <v>44950</v>
       </c>
-    </row>
-    <row r="786" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S785" s="3">
+        <f t="shared" si="1440"/>
+        <v>92396.479999999996</v>
+      </c>
+      <c r="T785" s="43">
+        <f t="shared" ref="T785" si="1536">D785+L785</f>
+        <v>78850.739999999991</v>
+      </c>
+      <c r="U785" s="3">
+        <f t="shared" ref="U785" si="1537">E785+M785</f>
+        <v>13545.740000000002</v>
+      </c>
+      <c r="V785" s="38">
+        <f t="shared" ref="V785" si="1538">S785/T785-1</f>
+        <v>0.17178963697740834</v>
+      </c>
+      <c r="W785" s="3">
+        <f t="shared" ref="W785" si="1539">S785-S784</f>
+        <v>57.94999999999709</v>
+      </c>
+      <c r="X785" s="38">
+        <f t="shared" ref="X785" si="1540">(S785)/S784-1</f>
+        <v>6.2758200720747226E-4</v>
+      </c>
+    </row>
+    <row r="786" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A786" s="37">
         <v>44951</v>
       </c>
@@ -74498,7 +74569,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="787" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A787" s="37">
         <v>44952</v>
       </c>
@@ -74509,7 +74580,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="788" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A788" s="37">
         <v>44953</v>
       </c>
@@ -74520,7 +74591,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="789" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A789" s="37">
         <v>44956</v>
       </c>
@@ -74531,7 +74602,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="790" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A790" s="37">
         <v>44957</v>
       </c>
@@ -74542,7 +74613,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="791" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A791" s="37">
         <v>44958</v>
       </c>
@@ -74553,7 +74624,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="792" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A792" s="37">
         <v>44959</v>
       </c>
@@ -74564,7 +74635,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="793" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A793" s="37">
         <v>44960</v>
       </c>
@@ -74575,7 +74646,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="794" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A794" s="37">
         <v>44963</v>
       </c>
@@ -74586,7 +74657,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="795" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A795" s="37">
         <v>44964</v>
       </c>
@@ -74597,7 +74668,7 @@
         <v>44964</v>
       </c>
     </row>
-    <row r="796" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A796" s="37">
         <v>44965</v>
       </c>
@@ -74608,7 +74679,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="797" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A797" s="37">
         <v>44966</v>
       </c>
@@ -74619,7 +74690,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="798" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A798" s="37">
         <v>44967</v>
       </c>
@@ -74630,7 +74701,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="799" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A799" s="37">
         <v>44970</v>
       </c>
@@ -74641,7 +74712,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="800" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A800" s="37">
         <v>44971</v>
       </c>
@@ -74942,7 +75013,7 @@
       </c>
       <c r="F5" s="28">
         <f ca="1">D5/D8</f>
-        <v>4.5562499999999995</v>
+        <v>4.3739999999999988</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -74958,7 +75029,7 @@
       </c>
       <c r="F6" s="4">
         <f ca="1">D6/D8</f>
-        <v>41.522916666666667</v>
+        <v>39.862000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -74967,7 +75038,7 @@
       </c>
       <c r="D8" s="5">
         <f ca="1">DAY(TODAY())</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="52"/>
     </row>

--- a/Fund Calculator.xlsx
+++ b/Fund Calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchoi02\Desktop\Github\Fund_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA41C46-FF0A-435A-9A9A-A7BBEF4EE9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C7A02C-1DD3-4415-B23B-408A306AC5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{CC186723-87AC-486E-8944-9BF126EE79E9}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" activeTab="1" xr2:uid="{CC186723-87AC-486E-8944-9BF126EE79E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Pension (before Jan 1, 2022)" sheetId="1" r:id="rId1"/>
@@ -3627,7 +3627,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B23" sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3868,8 +3868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E81D8C3-0D58-4DA0-ABC8-B90EEA5A988D}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3887,7 +3887,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="16">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -3895,7 +3895,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="18">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>35</v>
@@ -3939,7 +3939,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="20">
-        <v>70500</v>
+        <v>66400</v>
       </c>
       <c r="C7" s="10"/>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="B8" s="20">
         <f>B7*(1+B6)^B5</f>
-        <v>163230.2103587024</v>
+        <v>153737.38961443744</v>
       </c>
       <c r="C8" s="34"/>
     </row>
@@ -4025,18 +4025,18 @@
       </c>
       <c r="B17" s="23">
         <f>((B9*B11)+(B8-B9)*B12)*B5</f>
-        <v>105446.71589172175</v>
+        <v>99314.353690926597</v>
       </c>
       <c r="C17" s="11">
         <f>B17/B8</f>
-        <v>0.64599999999999991</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="13">
         <f>B17*880</f>
-        <v>92793109.984715134</v>
+        <v>87396631.248015404</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -4045,14 +4045,14 @@
       </c>
       <c r="B18" s="23">
         <f>B17/12</f>
-        <v>8787.2263243101461</v>
+        <v>8276.1961409105497</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="15">
         <f>B18*880</f>
-        <v>7732759.1653929288</v>
+        <v>7283052.6040012836</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="B21" s="20">
         <f>B17*(B3-B2)</f>
-        <v>2530721.1814013217</v>
+        <v>2482858.842273165</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="B22" s="26">
         <f>B21+B20</f>
-        <v>2530721.1814013217</v>
+        <v>2482858.842273165</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="B23" s="27">
         <f>B22/(B3-B2)</f>
-        <v>105446.71589172173</v>
+        <v>99314.353690926597</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -8588,7 +8588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A7CC9E-9876-428D-BF66-37EA5AD968FB}">
   <dimension ref="A1:AC818"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A755" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="T786" sqref="T786"/>
     </sheetView>
@@ -75013,7 +75013,7 @@
       </c>
       <c r="F5" s="28">
         <f ca="1">D5/D8</f>
-        <v>4.3739999999999988</v>
+        <v>4.2057692307692296</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -75029,7 +75029,7 @@
       </c>
       <c r="F6" s="4">
         <f ca="1">D6/D8</f>
-        <v>39.862000000000002</v>
+        <v>38.328846153846158</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -75038,7 +75038,7 @@
       </c>
       <c r="D8" s="5">
         <f ca="1">DAY(TODAY())</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="52"/>
     </row>

--- a/Fund Calculator.xlsx
+++ b/Fund Calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchoi02\Desktop\Github\Fund_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C7A02C-1DD3-4415-B23B-408A306AC5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB471025-493E-4BD4-8796-08F565F6BB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" activeTab="1" xr2:uid="{CC186723-87AC-486E-8944-9BF126EE79E9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{CC186723-87AC-486E-8944-9BF126EE79E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Pension (before Jan 1, 2022)" sheetId="1" r:id="rId1"/>
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="85">
   <si>
     <t>salary increate rate</t>
   </si>
@@ -482,6 +482,12 @@
   </si>
   <si>
     <t>Can invest about CAD$1000 more</t>
+  </si>
+  <si>
+    <t>CA$11000</t>
+  </si>
+  <si>
+    <t>Principal</t>
   </si>
 </sst>
 </file>
@@ -833,7 +839,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1087,6 +1093,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3868,7 +3880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E81D8C3-0D58-4DA0-ABC8-B90EEA5A988D}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+    <sheetView zoomScale="95" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -4717,7 +4729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30A076F-2A31-48E2-8878-A835510682FE}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -4730,7 +4742,7 @@
     <col min="5" max="5" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.08984375" style="1"/>
-    <col min="8" max="8" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
@@ -4762,21 +4774,21 @@
         <v>59</v>
       </c>
       <c r="B2" s="78">
-        <v>18.393000000000001</v>
+        <v>18.37</v>
       </c>
       <c r="C2" s="78">
-        <v>13.36</v>
+        <v>13.92</v>
       </c>
       <c r="D2" s="78">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E2" s="78">
         <f>D2*B2</f>
-        <v>3421.098</v>
+        <v>3453.5600000000004</v>
       </c>
       <c r="F2" s="78">
         <f>D2*C2</f>
-        <v>2484.96</v>
+        <v>2616.96</v>
       </c>
       <c r="H2" s="33">
         <v>44946</v>
@@ -4790,7 +4802,7 @@
         <v>15.853999999999999</v>
       </c>
       <c r="C3" s="78">
-        <v>7.04</v>
+        <v>7.71</v>
       </c>
       <c r="D3" s="78">
         <v>40</v>
@@ -4801,7 +4813,7 @@
       </c>
       <c r="F3" s="78">
         <f>D3*C3</f>
-        <v>281.60000000000002</v>
+        <v>308.39999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -4809,21 +4821,24 @@
         <v>61</v>
       </c>
       <c r="B4" s="78">
-        <v>8.3450000000000006</v>
+        <v>8.1920000000000002</v>
       </c>
       <c r="C4" s="78">
-        <v>5.2</v>
+        <v>5.75</v>
       </c>
       <c r="D4" s="78">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E4" s="78">
         <f>D4*B4</f>
-        <v>392.21500000000003</v>
+        <v>409.6</v>
       </c>
       <c r="F4" s="78">
         <f>D4*C4</f>
-        <v>244.4</v>
+        <v>287.5</v>
+      </c>
+      <c r="H4" s="95" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -4831,21 +4846,24 @@
         <v>62</v>
       </c>
       <c r="B5" s="32">
-        <v>84.748999999999995</v>
+        <v>83.733000000000004</v>
       </c>
       <c r="C5" s="32">
-        <v>70</v>
+        <v>76.28</v>
       </c>
       <c r="D5" s="32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="32">
         <f>D5*B5</f>
-        <v>593.24299999999994</v>
+        <v>669.86400000000003</v>
       </c>
       <c r="F5" s="32">
         <f>D5*C5</f>
-        <v>490</v>
+        <v>610.24</v>
+      </c>
+      <c r="H5" s="94" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -4857,11 +4875,11 @@
       </c>
       <c r="E6" s="78">
         <f>SUM(E2:E5)</f>
-        <v>5040.7160000000003</v>
+        <v>5167.1840000000011</v>
       </c>
       <c r="F6" s="78">
         <f>SUM(F2:F5)</f>
-        <v>3500.96</v>
+        <v>3823.1000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -4874,7 +4892,7 @@
       <c r="E7" s="78"/>
       <c r="F7" s="78">
         <f>F6-E6</f>
-        <v>-1539.7560000000003</v>
+        <v>-1344.0840000000007</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -4887,7 +4905,7 @@
       <c r="E8" s="32"/>
       <c r="F8" s="79">
         <f>(F6-E6)/E6</f>
-        <v>-0.30546374761045858</v>
+        <v>-0.26011924483432375</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -4897,6 +4915,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4939,46 +4958,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="O1" s="94" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="O1" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="O2" s="95" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="O2" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="31" t="s">
@@ -8628,57 +8647,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="K1" s="97" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="K1" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="S1" s="97" t="s">
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="S1" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
     </row>
     <row r="2" spans="1:29" s="36" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="45"/>
-      <c r="K2" s="98" t="s">
+      <c r="K2" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="S2" s="98" t="s">
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="S2" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
     </row>
     <row r="3" spans="1:29" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="35" t="s">
@@ -75013,7 +75032,7 @@
       </c>
       <c r="F5" s="28">
         <f ca="1">D5/D8</f>
-        <v>4.2057692307692296</v>
+        <v>4.0499999999999989</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -75029,7 +75048,7 @@
       </c>
       <c r="F6" s="4">
         <f ca="1">D6/D8</f>
-        <v>38.328846153846158</v>
+        <v>36.909259259259265</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -75038,7 +75057,7 @@
       </c>
       <c r="D8" s="5">
         <f ca="1">DAY(TODAY())</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="52"/>
     </row>

--- a/Fund Calculator.xlsx
+++ b/Fund Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JinCheol Choi\Desktop\Github\Fund_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B30FB09-1E8B-4036-88CA-E70EF70F9ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7E7CAE-CFBA-42DD-B63D-AF25616F5981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" firstSheet="2" activeTab="5" xr2:uid="{CC186723-87AC-486E-8944-9BF126EE79E9}"/>
   </bookViews>
@@ -8609,7 +8609,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A785" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T787" sqref="T787"/>
+      <selection pane="bottomLeft" activeCell="M802" sqref="M802"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -73730,7 +73730,7 @@
         <v>44936</v>
       </c>
       <c r="S775" s="3">
-        <f t="shared" ref="S775:S788" si="1440">B775+K775</f>
+        <f t="shared" ref="S775:S789" si="1440">B775+K775</f>
         <v>90480.23000000001</v>
       </c>
       <c r="T775" s="50">
@@ -74828,11 +74828,82 @@
       <c r="A789" s="37">
         <v>44956</v>
       </c>
+      <c r="B789" s="41">
+        <v>62259.39</v>
+      </c>
+      <c r="C789" s="3">
+        <v>51575.15</v>
+      </c>
+      <c r="D789" s="3">
+        <v>50450.74</v>
+      </c>
+      <c r="E789" s="3">
+        <f t="shared" ref="E789" si="1554">B789-D789</f>
+        <v>11808.650000000001</v>
+      </c>
+      <c r="F789" s="38">
+        <f t="shared" ref="F789" si="1555">B789/D789-1</f>
+        <v>0.23406296914574498</v>
+      </c>
+      <c r="G789" s="41">
+        <f t="shared" ref="G789" si="1556">B789-B788</f>
+        <v>-273.62999999999738</v>
+      </c>
+      <c r="H789" s="38">
+        <f t="shared" ref="H789" si="1557">(B789)/B788-1</f>
+        <v>-4.3757681941476445E-3</v>
+      </c>
       <c r="J789" s="37">
         <v>44956</v>
       </c>
+      <c r="K789" s="41">
+        <v>30198.33</v>
+      </c>
+      <c r="L789" s="58">
+        <v>28550</v>
+      </c>
+      <c r="M789" s="43">
+        <f t="shared" ref="M789" si="1558">K789-L789</f>
+        <v>1648.3300000000017</v>
+      </c>
+      <c r="N789" s="38">
+        <f t="shared" ref="N789" si="1559">K789/L789-1</f>
+        <v>5.7734851138353749E-2</v>
+      </c>
+      <c r="O789" s="43">
+        <f t="shared" ref="O789" si="1560">K789-K788</f>
+        <v>-132.72999999999956</v>
+      </c>
+      <c r="P789" s="38">
+        <f t="shared" ref="P789" si="1561">K789/K788-1</f>
+        <v>-4.3760422484410144E-3</v>
+      </c>
       <c r="R789" s="37">
         <v>44956</v>
+      </c>
+      <c r="S789" s="3">
+        <f t="shared" si="1440"/>
+        <v>92457.72</v>
+      </c>
+      <c r="T789" s="43">
+        <f t="shared" ref="T789" si="1562">D789+L789</f>
+        <v>79000.739999999991</v>
+      </c>
+      <c r="U789" s="3">
+        <f t="shared" ref="U789" si="1563">E789+M789</f>
+        <v>13456.980000000003</v>
+      </c>
+      <c r="V789" s="38">
+        <f t="shared" ref="V789" si="1564">S789/T789-1</f>
+        <v>0.17033992339818593</v>
+      </c>
+      <c r="W789" s="3">
+        <f t="shared" ref="W789" si="1565">S789-S788</f>
+        <v>-406.36000000000058</v>
+      </c>
+      <c r="X789" s="38">
+        <f t="shared" ref="X789" si="1566">(S789)/S788-1</f>
+        <v>-4.3758577051535852E-3</v>
       </c>
     </row>
     <row r="790" spans="1:24" x14ac:dyDescent="0.45">
@@ -75246,7 +75317,7 @@
       </c>
       <c r="F5" s="28">
         <f ca="1">D5/D8</f>
-        <v>3.6449999999999991</v>
+        <v>3.5274193548387092</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -75262,7 +75333,7 @@
       </c>
       <c r="F6" s="4">
         <f ca="1">D6/D8</f>
-        <v>33.218333333333334</v>
+        <v>32.146774193548389</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -75271,7 +75342,7 @@
       </c>
       <c r="D8" s="5">
         <f ca="1">DAY(TODAY())</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="52"/>
     </row>

--- a/Fund Calculator.xlsx
+++ b/Fund Calculator.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JinCheol Choi\Desktop\Github\Fund_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189F81F6-67F9-409D-8441-45FB578E601A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49008A85-A67D-4C83-A2F8-75466BB20467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28320" firstSheet="2" activeTab="5" xr2:uid="{CC186723-87AC-486E-8944-9BF126EE79E9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" firstSheet="2" activeTab="5" xr2:uid="{CC186723-87AC-486E-8944-9BF126EE79E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Pension (before Jan 1, 2022)" sheetId="1" r:id="rId1"/>
     <sheet name="Pension (after Jan 1, 2022)" sheetId="17" r:id="rId2"/>
     <sheet name="Net Worth" sheetId="11" r:id="rId3"/>
-    <sheet name="Stock Performance" sheetId="12" r:id="rId4"/>
-    <sheet name="Contribution" sheetId="7" r:id="rId5"/>
+    <sheet name="Contribution" sheetId="7" r:id="rId4"/>
+    <sheet name="Stock Performance" sheetId="12" r:id="rId5"/>
     <sheet name="Fund Performance" sheetId="9" r:id="rId6"/>
     <sheet name="Monthly Expenditure" sheetId="4" r:id="rId7"/>
     <sheet name="Sick Leave Estimation" sheetId="15" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1459,6 +1458,9 @@
                 <c:pt idx="35">
                   <c:v>-3215.0200000000041</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>4334.2400000000052</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1977,22 +1979,22 @@
                   <c:v>9539.8799999999901</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9539.8799999999901</c:v>
+                  <c:v>13874.119999999995</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9539.8799999999901</c:v>
+                  <c:v>13874.119999999995</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9539.8799999999901</c:v>
+                  <c:v>13874.119999999995</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9539.8799999999901</c:v>
+                  <c:v>13874.119999999995</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9539.8799999999901</c:v>
+                  <c:v>13874.119999999995</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9539.8799999999901</c:v>
+                  <c:v>13874.119999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3627,7 +3629,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4117,10 +4119,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7795CE93-FDFF-4351-B5D1-9EC1485DE170}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4128,11 +4130,12 @@
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.796875" style="54" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="11.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="35" t="s">
         <v>37</v>
       </c>
@@ -4140,7 +4143,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="37">
         <v>43903</v>
       </c>
@@ -4148,7 +4151,7 @@
         <v>47799.49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="30">
         <v>43914</v>
       </c>
@@ -4160,7 +4163,7 @@
         <v>-3125.4799999999959</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="30">
         <v>43919</v>
       </c>
@@ -4172,7 +4175,7 @@
         <v>3210.7799999999988</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="30">
         <v>43931</v>
       </c>
@@ -4184,7 +4187,7 @@
         <v>4483.0199999999968</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="30">
         <v>43937</v>
       </c>
@@ -4196,7 +4199,7 @@
         <v>2751.5400000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="30">
         <v>43947</v>
       </c>
@@ -4208,7 +4211,7 @@
         <v>1475.7799999999988</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="30">
         <v>43951</v>
       </c>
@@ -4220,7 +4223,7 @@
         <v>383.03000000000611</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="30">
         <v>43977</v>
       </c>
@@ -4232,7 +4235,7 @@
         <v>4562.9199999999983</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="30">
         <v>43982</v>
       </c>
@@ -4244,7 +4247,7 @@
         <v>-180.38999999999942</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="30">
         <v>43997</v>
       </c>
@@ -4256,7 +4259,7 @@
         <v>1077.5400000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="30">
         <v>44003</v>
       </c>
@@ -4268,7 +4271,7 @@
         <v>2389.0999999999985</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="30">
         <v>44020</v>
       </c>
@@ -4280,7 +4283,7 @@
         <v>3288.3000000000029</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="30">
         <v>44022</v>
       </c>
@@ -4292,7 +4295,7 @@
         <v>1395.8999999999942</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="30">
         <v>44029</v>
       </c>
@@ -4303,9 +4306,8 @@
         <f t="shared" si="0"/>
         <v>538.50999999999476</v>
       </c>
-      <c r="D15" s="56"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="30">
         <v>44062</v>
       </c>
@@ -4316,9 +4318,8 @@
         <f t="shared" si="0"/>
         <v>1037.9000000000087</v>
       </c>
-      <c r="D16" s="56"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="30">
         <v>44065</v>
       </c>
@@ -4329,9 +4330,8 @@
         <f t="shared" si="0"/>
         <v>763</v>
       </c>
-      <c r="D17" s="56"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="30">
         <v>44076</v>
       </c>
@@ -4342,9 +4342,8 @@
         <f t="shared" si="0"/>
         <v>5010.0599999999977</v>
       </c>
-      <c r="D18" s="56"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="30">
         <v>44092</v>
       </c>
@@ -4355,9 +4354,8 @@
         <f t="shared" si="0"/>
         <v>-4342.1600000000035</v>
       </c>
-      <c r="D19" s="56"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="30">
         <v>44100</v>
       </c>
@@ -4368,9 +4366,8 @@
         <f t="shared" si="0"/>
         <v>2723.6999999999971</v>
       </c>
-      <c r="D20" s="56"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="30">
         <v>44117</v>
       </c>
@@ -4381,9 +4378,8 @@
         <f t="shared" si="0"/>
         <v>5974.6100000000006</v>
       </c>
-      <c r="D21" s="56"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="30">
         <v>44136</v>
       </c>
@@ -4395,7 +4391,7 @@
         <v>-3768.3699999999953</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="30">
         <v>44153</v>
       </c>
@@ -4406,9 +4402,8 @@
         <f t="shared" si="0"/>
         <v>3431.5299999999988</v>
       </c>
-      <c r="D23" s="56"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="30">
         <v>44160</v>
       </c>
@@ -4419,9 +4414,8 @@
         <f t="shared" ref="C24:C31" si="1">B24-B23</f>
         <v>3040.6500000000087</v>
       </c>
-      <c r="D24" s="56"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="30">
         <v>44183</v>
       </c>
@@ -4432,9 +4426,8 @@
         <f t="shared" si="1"/>
         <v>3128.9199999999983</v>
       </c>
-      <c r="D25" s="56"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="30">
         <v>44217</v>
       </c>
@@ -4445,9 +4438,8 @@
         <f t="shared" si="1"/>
         <v>5239.3199999999924</v>
       </c>
-      <c r="D26" s="56"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="30">
         <v>44233</v>
       </c>
@@ -4458,9 +4450,8 @@
         <f t="shared" si="1"/>
         <v>2247.0800000000017</v>
       </c>
-      <c r="D27" s="56"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="30">
         <v>44258</v>
       </c>
@@ -4471,9 +4462,8 @@
         <f t="shared" si="1"/>
         <v>-868.75</v>
       </c>
-      <c r="D28" s="56"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="30">
         <v>44285</v>
       </c>
@@ -4484,9 +4474,8 @@
         <f t="shared" si="1"/>
         <v>4060.5299999999988</v>
       </c>
-      <c r="D29" s="56"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="30">
         <v>44293</v>
       </c>
@@ -4497,9 +4486,8 @@
         <f t="shared" si="1"/>
         <v>3134.0800000000017</v>
       </c>
-      <c r="D30" s="56"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="30">
         <v>44346</v>
       </c>
@@ -4511,7 +4499,7 @@
         <v>2445.9600000000064</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="30">
         <v>44359</v>
       </c>
@@ -4523,7 +4511,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="30">
         <v>44365</v>
       </c>
@@ -4535,7 +4523,7 @@
         <v>3879.0199999999895</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="30">
         <v>44384</v>
       </c>
@@ -4546,9 +4534,8 @@
         <f t="shared" si="2"/>
         <v>4989.8800000000047</v>
       </c>
-      <c r="D34" s="56"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="30">
         <v>44396</v>
       </c>
@@ -4559,9 +4546,8 @@
         <f t="shared" si="2"/>
         <v>1885.9799999999959</v>
       </c>
-      <c r="D35" s="56"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="30">
         <v>44400</v>
       </c>
@@ -4573,7 +4559,7 @@
         <v>2104.1200000000099</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="30">
         <v>44430</v>
       </c>
@@ -4584,9 +4570,8 @@
         <f t="shared" si="2"/>
         <v>3789.2999999999884</v>
       </c>
-      <c r="D37" s="56"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="30">
         <v>44461</v>
       </c>
@@ -4597,9 +4582,8 @@
         <f t="shared" si="2"/>
         <v>-914.39999999999418</v>
       </c>
-      <c r="D38" s="56"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="30">
         <v>44497</v>
       </c>
@@ -4610,9 +4594,8 @@
         <f t="shared" si="2"/>
         <v>8942.6499999999942</v>
       </c>
-      <c r="D39" s="56"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="30">
         <v>44508</v>
       </c>
@@ -4624,7 +4607,7 @@
         <v>6167.679999999993</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="30">
         <v>44520</v>
       </c>
@@ -4632,11 +4615,11 @@
         <v>141467.68</v>
       </c>
       <c r="C41" s="56">
-        <f t="shared" ref="C41:C47" si="3">B41-B40</f>
+        <f t="shared" ref="C41:C48" si="3">B41-B40</f>
         <v>4286.3500000000058</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="30">
         <v>44541</v>
       </c>
@@ -4648,7 +4631,7 @@
         <v>-99.009999999980209</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="30">
         <v>44626</v>
       </c>
@@ -4660,7 +4643,7 @@
         <v>-8488.640000000014</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="30">
         <v>44702</v>
       </c>
@@ -4672,7 +4655,7 @@
         <v>-2632.5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="30">
         <v>44768</v>
       </c>
@@ -4684,7 +4667,7 @@
         <v>5536.7699999999895</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="30">
         <v>44805</v>
       </c>
@@ -4696,7 +4679,7 @@
         <v>2553.9100000000326</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="30">
         <v>44937</v>
       </c>
@@ -4707,18 +4690,22 @@
         <f t="shared" si="3"/>
         <v>10378.719999999972</v>
       </c>
-      <c r="D47" s="56"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48" s="30"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D50" s="56"/>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D51" s="56"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="30">
+        <v>44958</v>
+      </c>
+      <c r="B48" s="54">
+        <v>154823.54999999999</v>
+      </c>
+      <c r="C48" s="56">
+        <f t="shared" si="3"/>
+        <v>6106.6199999999953</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4727,200 +4714,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30A076F-2A31-48E2-8878-A835510682FE}">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="6.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.06640625" style="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.06640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="80" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="78">
-        <v>18.347999999999999</v>
-      </c>
-      <c r="C2" s="78">
-        <v>14</v>
-      </c>
-      <c r="D2" s="78">
-        <v>189</v>
-      </c>
-      <c r="E2" s="78">
-        <f>D2*B2</f>
-        <v>3467.7719999999999</v>
-      </c>
-      <c r="F2" s="78">
-        <f>D2*C2</f>
-        <v>2646</v>
-      </c>
-      <c r="H2" s="33">
-        <v>44957</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="78">
-        <v>8.141</v>
-      </c>
-      <c r="C3" s="78">
-        <v>5.49</v>
-      </c>
-      <c r="D3" s="78">
-        <v>51</v>
-      </c>
-      <c r="E3" s="78">
-        <f>D3*B3</f>
-        <v>415.19099999999997</v>
-      </c>
-      <c r="F3" s="78">
-        <f>D3*C3</f>
-        <v>279.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="78">
-        <v>15.657</v>
-      </c>
-      <c r="C4" s="78">
-        <v>7.76</v>
-      </c>
-      <c r="D4" s="78">
-        <v>41</v>
-      </c>
-      <c r="E4" s="78">
-        <f>D4*B4</f>
-        <v>641.93700000000001</v>
-      </c>
-      <c r="F4" s="78">
-        <f>D4*C4</f>
-        <v>318.15999999999997</v>
-      </c>
-      <c r="H4" s="95" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="32">
-        <v>82.768000000000001</v>
-      </c>
-      <c r="C5" s="32">
-        <v>77.64</v>
-      </c>
-      <c r="D5" s="32">
-        <v>9</v>
-      </c>
-      <c r="E5" s="32">
-        <f>D5*B5</f>
-        <v>744.91200000000003</v>
-      </c>
-      <c r="F5" s="32">
-        <f>D5*C5</f>
-        <v>698.76</v>
-      </c>
-      <c r="H5" s="94" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="78">
-        <f>SUM(E2:E5)</f>
-        <v>5269.8119999999999</v>
-      </c>
-      <c r="F6" s="78">
-        <f>SUM(F2:F5)</f>
-        <v>3942.91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78">
-        <f>F6-E6</f>
-        <v>-1326.902</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="79">
-        <f>(F6-E6)/E6</f>
-        <v>-0.25179304309148032</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E11" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9241E3-2325-4109-8617-9690174EA8AC}">
   <dimension ref="A1:Y147"/>
   <sheetViews>
@@ -8604,13 +8397,207 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30A076F-2A31-48E2-8878-A835510682FE}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.06640625" style="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="80" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="78">
+        <v>18.347999999999999</v>
+      </c>
+      <c r="C2" s="78">
+        <v>14.33</v>
+      </c>
+      <c r="D2" s="78">
+        <v>189</v>
+      </c>
+      <c r="E2" s="78">
+        <f>D2*B2</f>
+        <v>3467.7719999999999</v>
+      </c>
+      <c r="F2" s="78">
+        <f>D2*C2</f>
+        <v>2708.37</v>
+      </c>
+      <c r="H2" s="33">
+        <v>44957</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="78">
+        <v>8.141</v>
+      </c>
+      <c r="C3" s="78">
+        <v>5.62</v>
+      </c>
+      <c r="D3" s="78">
+        <v>51</v>
+      </c>
+      <c r="E3" s="78">
+        <f>D3*B3</f>
+        <v>415.19099999999997</v>
+      </c>
+      <c r="F3" s="78">
+        <f>D3*C3</f>
+        <v>286.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="78">
+        <v>15.657</v>
+      </c>
+      <c r="C4" s="78">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D4" s="78">
+        <v>41</v>
+      </c>
+      <c r="E4" s="78">
+        <f>D4*B4</f>
+        <v>641.93700000000001</v>
+      </c>
+      <c r="F4" s="78">
+        <f>D4*C4</f>
+        <v>336.2</v>
+      </c>
+      <c r="H4" s="95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="32">
+        <v>82.768000000000001</v>
+      </c>
+      <c r="C5" s="32">
+        <v>84.64</v>
+      </c>
+      <c r="D5" s="32">
+        <v>9</v>
+      </c>
+      <c r="E5" s="32">
+        <f>D5*B5</f>
+        <v>744.91200000000003</v>
+      </c>
+      <c r="F5" s="32">
+        <f>D5*C5</f>
+        <v>761.76</v>
+      </c>
+      <c r="H5" s="94" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="78">
+        <f>SUM(E2:E5)</f>
+        <v>5269.8119999999999</v>
+      </c>
+      <c r="F6" s="78">
+        <f>SUM(F2:F5)</f>
+        <v>4092.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78">
+        <f>F6-E6</f>
+        <v>-1176.8620000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="79">
+        <f>(F6-E6)/E6</f>
+        <v>-0.22332143917088507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E11" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A7CC9E-9876-428D-BF66-37EA5AD968FB}">
   <dimension ref="A1:AC818"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A773" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D811" sqref="D811"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB48" sqref="AB48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9211,7 +9198,7 @@
         <v>43952</v>
       </c>
       <c r="AB8" s="53">
-        <f t="shared" ref="AB8:AB39" si="7">SUMIFS($W$4:$W$10771,$R$4:$R$10771,"&gt;="&amp;AA8,$R$4:$R$10771,"&lt;="&amp;EOMONTH(AA8,0))</f>
+        <f t="shared" ref="AB8:AB40" si="7">SUMIFS($W$4:$W$10771,$R$4:$R$10771,"&gt;="&amp;AA8,$R$4:$R$10771,"&lt;="&amp;EOMONTH(AA8,0))</f>
         <v>2214.8999999999942</v>
       </c>
       <c r="AC8" s="52">
@@ -12203,10 +12190,13 @@
       <c r="AA40" s="37">
         <v>44927</v>
       </c>
-      <c r="AB40" s="53"/>
+      <c r="AB40" s="53">
+        <f t="shared" si="7"/>
+        <v>4334.2400000000052</v>
+      </c>
       <c r="AC40" s="52">
         <f>SUM($AB$4:AB40)</f>
-        <v>9539.8799999999901</v>
+        <v>13874.119999999995</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.45">
@@ -12298,7 +12288,7 @@
       <c r="AB41" s="53"/>
       <c r="AC41" s="52">
         <f>SUM($AB$4:AB41)</f>
-        <v>9539.8799999999901</v>
+        <v>13874.119999999995</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.45">
@@ -12390,7 +12380,7 @@
       <c r="AB42" s="53"/>
       <c r="AC42" s="52">
         <f>SUM($AB$4:AB42)</f>
-        <v>9539.8799999999901</v>
+        <v>13874.119999999995</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.45">
@@ -12482,7 +12472,7 @@
       <c r="AB43" s="53"/>
       <c r="AC43" s="52">
         <f>SUM($AB$4:AB43)</f>
-        <v>9539.8799999999901</v>
+        <v>13874.119999999995</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.45">
@@ -12576,7 +12566,7 @@
       <c r="AB44" s="53"/>
       <c r="AC44" s="52">
         <f>SUM($AB$4:AB44)</f>
-        <v>9539.8799999999901</v>
+        <v>13874.119999999995</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.45">
@@ -12668,7 +12658,7 @@
       <c r="AB45" s="53"/>
       <c r="AC45" s="52">
         <f>SUM($AB$4:AB45)</f>
-        <v>9539.8799999999901</v>
+        <v>13874.119999999995</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.45">
@@ -73731,7 +73721,7 @@
         <v>44936</v>
       </c>
       <c r="S775" s="3">
-        <f t="shared" ref="S775:S790" si="1440">B775+K775</f>
+        <f t="shared" ref="S775:S791" si="1440">B775+K775</f>
         <v>90480.23000000001</v>
       </c>
       <c r="T775" s="50">
@@ -74921,7 +74911,7 @@
         <v>50450.74</v>
       </c>
       <c r="E790" s="3">
-        <f t="shared" ref="E790" si="1567">B790-D790</f>
+        <f t="shared" ref="E790:E791" si="1567">B790-D790</f>
         <v>12089.54</v>
       </c>
       <c r="F790" s="38">
@@ -74946,7 +74936,7 @@
         <v>28550</v>
       </c>
       <c r="M790" s="43">
-        <f t="shared" ref="M790" si="1571">K790-L790</f>
+        <f t="shared" ref="M790:M791" si="1571">K790-L790</f>
         <v>1784.5800000000017</v>
       </c>
       <c r="N790" s="38">
@@ -74969,11 +74959,11 @@
         <v>92874.86</v>
       </c>
       <c r="T790" s="43">
-        <f t="shared" ref="T790" si="1575">D790+L790</f>
+        <f t="shared" ref="T790:T791" si="1575">D790+L790</f>
         <v>79000.739999999991</v>
       </c>
       <c r="U790" s="3">
-        <f t="shared" ref="U790" si="1576">E790+M790</f>
+        <f t="shared" ref="U790:U791" si="1576">E790+M790</f>
         <v>13874.120000000003</v>
       </c>
       <c r="V790" s="38">
@@ -74993,11 +74983,85 @@
       <c r="A791" s="37">
         <v>44958</v>
       </c>
+      <c r="B791" s="41">
+        <v>62957.59</v>
+      </c>
+      <c r="C791" s="47">
+        <f>C790+250</f>
+        <v>51825.15</v>
+      </c>
+      <c r="D791" s="47">
+        <f>D790+250</f>
+        <v>50700.74</v>
+      </c>
+      <c r="E791" s="47">
+        <f t="shared" si="1567"/>
+        <v>12256.849999999999</v>
+      </c>
+      <c r="F791" s="48">
+        <f>(B791-250)/D791-1</f>
+        <v>0.23681804249799909</v>
+      </c>
+      <c r="G791" s="49">
+        <f>B791-B790-250</f>
+        <v>167.30999999999767</v>
+      </c>
+      <c r="H791" s="48">
+        <f>(B791-250)/B790-1</f>
+        <v>2.6752358639903218E-3</v>
+      </c>
       <c r="J791" s="37">
         <v>44958</v>
       </c>
+      <c r="K791" s="41">
+        <v>30565.73</v>
+      </c>
+      <c r="L791" s="57">
+        <f>L790+150</f>
+        <v>28700</v>
+      </c>
+      <c r="M791" s="43">
+        <f t="shared" si="1571"/>
+        <v>1865.7299999999996</v>
+      </c>
+      <c r="N791" s="38">
+        <f>(K791-400)/L791-1</f>
+        <v>5.107073170731713E-2</v>
+      </c>
+      <c r="O791" s="50">
+        <f>K791-K790-150</f>
+        <v>81.149999999997817</v>
+      </c>
+      <c r="P791" s="51">
+        <f>(K791-150)/K790-1</f>
+        <v>2.6751647789420296E-3</v>
+      </c>
       <c r="R791" s="37">
         <v>44958</v>
+      </c>
+      <c r="S791" s="3">
+        <f t="shared" si="1440"/>
+        <v>93523.319999999992</v>
+      </c>
+      <c r="T791" s="85">
+        <f t="shared" si="1575"/>
+        <v>79400.739999999991</v>
+      </c>
+      <c r="U791" s="3">
+        <f t="shared" si="1576"/>
+        <v>14122.579999999998</v>
+      </c>
+      <c r="V791" s="82">
+        <f>(S791-400)/(T791-400)-1</f>
+        <v>0.17876516093393557</v>
+      </c>
+      <c r="W791" s="81">
+        <f>S791-S790-400</f>
+        <v>248.45999999999185</v>
+      </c>
+      <c r="X791" s="82">
+        <f>(S791-400)/S790-1</f>
+        <v>2.6752126463500669E-3</v>
       </c>
     </row>
     <row r="792" spans="1:24" x14ac:dyDescent="0.45">
@@ -75486,7 +75550,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -75696,18 +75760,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6CCBB7-8CD9-4AD2-8EF8-F32EE39371A2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Fund Calculator.xlsx
+++ b/Fund Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchoi02\Desktop\Github\Fund_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B970E2AE-CFBA-499A-9F5B-17DA16F1955E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401D1743-D2D8-46EB-AE3C-3897584574E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="5" xr2:uid="{CC186723-87AC-486E-8944-9BF126EE79E9}"/>
   </bookViews>
@@ -8595,9 +8595,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A7CC9E-9876-428D-BF66-37EA5AD968FB}">
   <dimension ref="A1:AC818"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A769" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T794" sqref="T794:X794"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A764" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V796" sqref="V796"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -73721,7 +73721,7 @@
         <v>44936</v>
       </c>
       <c r="S775" s="3">
-        <f t="shared" ref="S775:S794" si="1440">B775+K775</f>
+        <f t="shared" ref="S775:S795" si="1440">B775+K775</f>
         <v>90480.23000000001</v>
       </c>
       <c r="T775" s="50">
@@ -75314,11 +75314,82 @@
       <c r="A795" s="37">
         <v>44964</v>
       </c>
+      <c r="B795" s="41">
+        <v>62692.1</v>
+      </c>
+      <c r="C795" s="3">
+        <v>51825.15</v>
+      </c>
+      <c r="D795" s="3">
+        <v>50700.74</v>
+      </c>
+      <c r="E795" s="3">
+        <f t="shared" ref="E795" si="1619">B795-D795</f>
+        <v>11991.36</v>
+      </c>
+      <c r="F795" s="38">
+        <f t="shared" ref="F795" si="1620">B795/D795-1</f>
+        <v>0.23651252427479363</v>
+      </c>
+      <c r="G795" s="41">
+        <f t="shared" ref="G795" si="1621">B795-B794</f>
+        <v>113.86999999999534</v>
+      </c>
+      <c r="H795" s="38">
+        <f t="shared" ref="H795" si="1622">(B795)/B794-1</f>
+        <v>1.8196423900131986E-3</v>
+      </c>
       <c r="J795" s="37">
         <v>44964</v>
       </c>
+      <c r="K795" s="41">
+        <v>30436.84</v>
+      </c>
+      <c r="L795" s="58">
+        <v>28700</v>
+      </c>
+      <c r="M795" s="43">
+        <f t="shared" ref="M795" si="1623">K795-L795</f>
+        <v>1736.8400000000001</v>
+      </c>
+      <c r="N795" s="38">
+        <f t="shared" ref="N795" si="1624">K795/L795-1</f>
+        <v>6.0517073170731628E-2</v>
+      </c>
+      <c r="O795" s="43">
+        <f t="shared" ref="O795" si="1625">K795-K794</f>
+        <v>55.279999999998836</v>
+      </c>
+      <c r="P795" s="38">
+        <f t="shared" ref="P795" si="1626">K795/K794-1</f>
+        <v>1.8195247380319302E-3</v>
+      </c>
       <c r="R795" s="37">
         <v>44964</v>
+      </c>
+      <c r="S795" s="3">
+        <f t="shared" si="1440"/>
+        <v>93128.94</v>
+      </c>
+      <c r="T795" s="43">
+        <f t="shared" ref="T795" si="1627">D795+L795</f>
+        <v>79400.739999999991</v>
+      </c>
+      <c r="U795" s="3">
+        <f t="shared" ref="U795" si="1628">E795+M795</f>
+        <v>13728.2</v>
+      </c>
+      <c r="V795" s="38">
+        <f t="shared" ref="V795" si="1629">S795/T795-1</f>
+        <v>0.17289763294397531</v>
+      </c>
+      <c r="W795" s="3">
+        <f t="shared" ref="W795" si="1630">S795-S794</f>
+        <v>169.14999999999418</v>
+      </c>
+      <c r="X795" s="38">
+        <f t="shared" ref="X795" si="1631">(S795)/S794-1</f>
+        <v>1.8196039384339446E-3</v>
       </c>
     </row>
     <row r="796" spans="1:24" x14ac:dyDescent="0.35">
@@ -75666,7 +75737,7 @@
       </c>
       <c r="F5" s="28">
         <f ca="1">D5/D8</f>
-        <v>18.224999999999998</v>
+        <v>13.668749999999998</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -75682,7 +75753,7 @@
       </c>
       <c r="F6" s="4">
         <f ca="1">D6/D8</f>
-        <v>166.09166666666667</v>
+        <v>124.56875000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -75691,7 +75762,7 @@
       </c>
       <c r="D8" s="5">
         <f ca="1">DAY(TODAY())</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8" s="52"/>
     </row>

--- a/Fund Calculator.xlsx
+++ b/Fund Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchoi02\Desktop\Github\Fund_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401D1743-D2D8-46EB-AE3C-3897584574E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB453E63-81B1-4B0E-AD30-B5F9D59F3CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="5" xr2:uid="{CC186723-87AC-486E-8944-9BF126EE79E9}"/>
   </bookViews>
@@ -8595,9 +8595,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A7CC9E-9876-428D-BF66-37EA5AD968FB}">
   <dimension ref="A1:AC818"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A764" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V796" sqref="V796"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A766" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T797" sqref="T797"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -73721,7 +73721,7 @@
         <v>44936</v>
       </c>
       <c r="S775" s="3">
-        <f t="shared" ref="S775:S795" si="1440">B775+K775</f>
+        <f t="shared" ref="S775:S796" si="1440">B775+K775</f>
         <v>90480.23000000001</v>
       </c>
       <c r="T775" s="50">
@@ -75349,7 +75349,7 @@
         <v>28700</v>
       </c>
       <c r="M795" s="43">
-        <f t="shared" ref="M795" si="1623">K795-L795</f>
+        <f t="shared" ref="M795:M796" si="1623">K795-L795</f>
         <v>1736.8400000000001</v>
       </c>
       <c r="N795" s="38">
@@ -75376,7 +75376,7 @@
         <v>79400.739999999991</v>
       </c>
       <c r="U795" s="3">
-        <f t="shared" ref="U795" si="1628">E795+M795</f>
+        <f t="shared" ref="U795:U796" si="1628">E795+M795</f>
         <v>13728.2</v>
       </c>
       <c r="V795" s="38">
@@ -75396,11 +75396,83 @@
       <c r="A796" s="37">
         <v>44965</v>
       </c>
+      <c r="B796" s="41">
+        <v>62674.62</v>
+      </c>
+      <c r="C796" s="3">
+        <v>51825.15</v>
+      </c>
+      <c r="D796" s="3">
+        <v>50700.74</v>
+      </c>
+      <c r="E796" s="3">
+        <f t="shared" ref="E796" si="1632">B796-D796</f>
+        <v>11973.880000000005</v>
+      </c>
+      <c r="F796" s="38">
+        <f t="shared" ref="F796" si="1633">B796/D796-1</f>
+        <v>0.2361677561313702</v>
+      </c>
+      <c r="G796" s="41">
+        <f t="shared" ref="G796" si="1634">B796-B795</f>
+        <v>-17.479999999995925</v>
+      </c>
+      <c r="H796" s="38">
+        <f t="shared" ref="H796" si="1635">(B796)/B795-1</f>
+        <v>-2.788230095975841E-4</v>
+      </c>
       <c r="J796" s="37">
         <v>44965</v>
       </c>
+      <c r="K796" s="41">
+        <v>30578.35</v>
+      </c>
+      <c r="L796" s="57">
+        <f>L795+150</f>
+        <v>28850</v>
+      </c>
+      <c r="M796" s="43">
+        <f t="shared" si="1623"/>
+        <v>1728.3499999999985</v>
+      </c>
+      <c r="N796" s="38">
+        <f>(K796-400)/L796-1</f>
+        <v>4.6043327556325675E-2</v>
+      </c>
+      <c r="O796" s="50">
+        <f>K796-K795-150</f>
+        <v>-8.4900000000016007</v>
+      </c>
+      <c r="P796" s="51">
+        <f>(K796-150)/K795-1</f>
+        <v>-2.7893828662906017E-4</v>
+      </c>
       <c r="R796" s="37">
         <v>44965</v>
+      </c>
+      <c r="S796" s="3">
+        <f t="shared" si="1440"/>
+        <v>93252.97</v>
+      </c>
+      <c r="T796" s="50">
+        <f>T795+150</f>
+        <v>79550.739999999991</v>
+      </c>
+      <c r="U796" s="3">
+        <f t="shared" si="1628"/>
+        <v>13702.230000000003</v>
+      </c>
+      <c r="V796" s="51">
+        <f>(S796-150)/(T796-150)-1</f>
+        <v>0.17257055790663922</v>
+      </c>
+      <c r="W796" s="50">
+        <f>S796-S795-150</f>
+        <v>-25.970000000001164</v>
+      </c>
+      <c r="X796" s="51">
+        <f>(S796-150)/S795-1</f>
+        <v>-2.7886068498150784E-4</v>
       </c>
     </row>
     <row r="797" spans="1:24" x14ac:dyDescent="0.35">
@@ -75737,7 +75809,7 @@
       </c>
       <c r="F5" s="28">
         <f ca="1">D5/D8</f>
-        <v>13.668749999999998</v>
+        <v>12.149999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -75753,7 +75825,7 @@
       </c>
       <c r="F6" s="4">
         <f ca="1">D6/D8</f>
-        <v>124.56875000000001</v>
+        <v>110.72777777777779</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -75762,7 +75834,7 @@
       </c>
       <c r="D8" s="5">
         <f ca="1">DAY(TODAY())</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" s="52"/>
     </row>

--- a/Fund Calculator.xlsx
+++ b/Fund Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchoi02\Desktop\Github\Fund_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB453E63-81B1-4B0E-AD30-B5F9D59F3CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A88DC5-D920-40C9-AA9F-2FF5B351E6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="5" xr2:uid="{CC186723-87AC-486E-8944-9BF126EE79E9}"/>
   </bookViews>
@@ -8402,7 +8402,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8596,8 +8596,8 @@
   <dimension ref="A1:AC818"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A766" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T797" sqref="T797"/>
+      <pane ySplit="3" topLeftCell="A775" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T798" sqref="T798"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -73721,7 +73721,7 @@
         <v>44936</v>
       </c>
       <c r="S775" s="3">
-        <f t="shared" ref="S775:S796" si="1440">B775+K775</f>
+        <f t="shared" ref="S775:S797" si="1440">B775+K775</f>
         <v>90480.23000000001</v>
       </c>
       <c r="T775" s="50">
@@ -75479,11 +75479,82 @@
       <c r="A797" s="37">
         <v>44966</v>
       </c>
+      <c r="B797" s="41">
+        <v>62476.21</v>
+      </c>
+      <c r="C797" s="3">
+        <v>51825.15</v>
+      </c>
+      <c r="D797" s="3">
+        <v>50700.74</v>
+      </c>
+      <c r="E797" s="3">
+        <f t="shared" ref="E797" si="1636">B797-D797</f>
+        <v>11775.470000000001</v>
+      </c>
+      <c r="F797" s="38">
+        <f t="shared" ref="F797" si="1637">B797/D797-1</f>
+        <v>0.23225440102057693</v>
+      </c>
+      <c r="G797" s="41">
+        <f t="shared" ref="G797" si="1638">B797-B796</f>
+        <v>-198.41000000000349</v>
+      </c>
+      <c r="H797" s="38">
+        <f t="shared" ref="H797" si="1639">(B797)/B796-1</f>
+        <v>-3.1657152448630876E-3</v>
+      </c>
       <c r="J797" s="37">
         <v>44966</v>
       </c>
+      <c r="K797" s="41">
+        <v>30481.55</v>
+      </c>
+      <c r="L797" s="58">
+        <v>28850</v>
+      </c>
+      <c r="M797" s="43">
+        <f t="shared" ref="M797" si="1640">K797-L797</f>
+        <v>1631.5499999999993</v>
+      </c>
+      <c r="N797" s="38">
+        <f t="shared" ref="N797" si="1641">K797/L797-1</f>
+        <v>5.6552859618717477E-2</v>
+      </c>
+      <c r="O797" s="43">
+        <f t="shared" ref="O797" si="1642">K797-K796</f>
+        <v>-96.799999999999272</v>
+      </c>
+      <c r="P797" s="38">
+        <f t="shared" ref="P797" si="1643">K797/K796-1</f>
+        <v>-3.1656384337284127E-3</v>
+      </c>
       <c r="R797" s="37">
         <v>44966</v>
+      </c>
+      <c r="S797" s="3">
+        <f t="shared" si="1440"/>
+        <v>92957.759999999995</v>
+      </c>
+      <c r="T797" s="43">
+        <f t="shared" ref="T797" si="1644">D797+L797</f>
+        <v>79550.739999999991</v>
+      </c>
+      <c r="U797" s="3">
+        <f t="shared" ref="U797" si="1645">E797+M797</f>
+        <v>13407.02</v>
+      </c>
+      <c r="V797" s="38">
+        <f t="shared" ref="V797" si="1646">S797/T797-1</f>
+        <v>0.16853419591068541</v>
+      </c>
+      <c r="W797" s="3">
+        <f t="shared" ref="W797" si="1647">S797-S796</f>
+        <v>-295.2100000000064</v>
+      </c>
+      <c r="X797" s="38">
+        <f t="shared" ref="X797" si="1648">(S797)/S796-1</f>
+        <v>-3.1656900579145608E-3</v>
       </c>
     </row>
     <row r="798" spans="1:24" x14ac:dyDescent="0.35">
@@ -75809,7 +75880,7 @@
       </c>
       <c r="F5" s="28">
         <f ca="1">D5/D8</f>
-        <v>12.149999999999999</v>
+        <v>10.934999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -75825,7 +75896,7 @@
       </c>
       <c r="F6" s="4">
         <f ca="1">D6/D8</f>
-        <v>110.72777777777779</v>
+        <v>99.655000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -75834,7 +75905,7 @@
       </c>
       <c r="D8" s="5">
         <f ca="1">DAY(TODAY())</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="52"/>
     </row>

--- a/Fund Calculator.xlsx
+++ b/Fund Calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchoi02\Desktop\Github\Fund_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A88DC5-D920-40C9-AA9F-2FF5B351E6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EFDE9A-996C-4486-AA9E-26452B99CA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="5" xr2:uid="{CC186723-87AC-486E-8944-9BF126EE79E9}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="4" activeTab="4" xr2:uid="{CC186723-87AC-486E-8944-9BF126EE79E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Pension (before Jan 1, 2022)" sheetId="1" r:id="rId1"/>
@@ -8401,8 +8401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30A076F-2A31-48E2-8878-A835510682FE}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8449,7 +8449,7 @@
         <v>18.347999999999999</v>
       </c>
       <c r="C2" s="78">
-        <v>14.68</v>
+        <v>13.81</v>
       </c>
       <c r="D2" s="78">
         <v>189</v>
@@ -8460,7 +8460,7 @@
       </c>
       <c r="F2" s="78">
         <f>D2*C2</f>
-        <v>2774.52</v>
+        <v>2610.09</v>
       </c>
       <c r="H2" s="33">
         <v>44957</v>
@@ -8474,7 +8474,7 @@
         <v>8.141</v>
       </c>
       <c r="C3" s="78">
-        <v>6.34</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="D3" s="78">
         <v>51</v>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F3" s="78">
         <f>D3*C3</f>
-        <v>323.33999999999997</v>
+        <v>253.98000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -8496,7 +8496,7 @@
         <v>15.657</v>
       </c>
       <c r="C4" s="78">
-        <v>8.99</v>
+        <v>7.51</v>
       </c>
       <c r="D4" s="78">
         <v>41</v>
@@ -8507,7 +8507,7 @@
       </c>
       <c r="F4" s="78">
         <f>D4*C4</f>
-        <v>368.59000000000003</v>
+        <v>307.90999999999997</v>
       </c>
       <c r="H4" s="95" t="s">
         <v>83</v>
@@ -8521,7 +8521,7 @@
         <v>82.768000000000001</v>
       </c>
       <c r="C5" s="32">
-        <v>88.31</v>
+        <v>81.48</v>
       </c>
       <c r="D5" s="32">
         <v>9</v>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="F5" s="32">
         <f>D5*C5</f>
-        <v>794.79</v>
+        <v>733.32</v>
       </c>
       <c r="H5" s="94" t="s">
         <v>84</v>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="F6" s="78">
         <f>SUM(F2:F5)</f>
-        <v>4261.24</v>
+        <v>3905.3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -8564,7 +8564,7 @@
       <c r="E7" s="78"/>
       <c r="F7" s="78">
         <f>F6-E6</f>
-        <v>-1008.5720000000001</v>
+        <v>-1364.5119999999997</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -8577,7 +8577,7 @@
       <c r="E8" s="32"/>
       <c r="F8" s="79">
         <f>(F6-E6)/E6</f>
-        <v>-0.19138671360572257</v>
+        <v>-0.25892992008064042</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -8595,9 +8595,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A7CC9E-9876-428D-BF66-37EA5AD968FB}">
   <dimension ref="A1:AC818"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A775" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T798" sqref="T798"/>
+      <selection pane="bottomLeft" activeCell="T798" sqref="T798:X798"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -73721,7 +73721,7 @@
         <v>44936</v>
       </c>
       <c r="S775" s="3">
-        <f t="shared" ref="S775:S797" si="1440">B775+K775</f>
+        <f t="shared" ref="S775:S798" si="1440">B775+K775</f>
         <v>90480.23000000001</v>
       </c>
       <c r="T775" s="50">
@@ -75561,11 +75561,82 @@
       <c r="A798" s="37">
         <v>44967</v>
       </c>
+      <c r="B798" s="41">
+        <v>62370.8</v>
+      </c>
+      <c r="C798" s="3">
+        <v>51825.15</v>
+      </c>
+      <c r="D798" s="3">
+        <v>50700.74</v>
+      </c>
+      <c r="E798" s="3">
+        <f t="shared" ref="E798" si="1649">B798-D798</f>
+        <v>11670.060000000005</v>
+      </c>
+      <c r="F798" s="38">
+        <f t="shared" ref="F798" si="1650">B798/D798-1</f>
+        <v>0.23017533866369622</v>
+      </c>
+      <c r="G798" s="41">
+        <f t="shared" ref="G798" si="1651">B798-B797</f>
+        <v>-105.40999999999622</v>
+      </c>
+      <c r="H798" s="38">
+        <f t="shared" ref="H798" si="1652">(B798)/B797-1</f>
+        <v>-1.6872022166516398E-3</v>
+      </c>
       <c r="J798" s="37">
         <v>44967</v>
       </c>
+      <c r="K798" s="41">
+        <v>30430.12</v>
+      </c>
+      <c r="L798" s="58">
+        <v>28850</v>
+      </c>
+      <c r="M798" s="43">
+        <f t="shared" ref="M798" si="1653">K798-L798</f>
+        <v>1580.119999999999</v>
+      </c>
+      <c r="N798" s="38">
+        <f t="shared" ref="N798" si="1654">K798/L798-1</f>
+        <v>5.4770190641247884E-2</v>
+      </c>
+      <c r="O798" s="43">
+        <f t="shared" ref="O798" si="1655">K798-K797</f>
+        <v>-51.430000000000291</v>
+      </c>
+      <c r="P798" s="38">
+        <f t="shared" ref="P798" si="1656">K798/K797-1</f>
+        <v>-1.6872501562420483E-3</v>
+      </c>
       <c r="R798" s="37">
         <v>44967</v>
+      </c>
+      <c r="S798" s="3">
+        <f t="shared" si="1440"/>
+        <v>92800.92</v>
+      </c>
+      <c r="T798" s="43">
+        <f t="shared" ref="T798" si="1657">D798+L798</f>
+        <v>79550.739999999991</v>
+      </c>
+      <c r="U798" s="3">
+        <f t="shared" ref="U798" si="1658">E798+M798</f>
+        <v>13250.180000000004</v>
+      </c>
+      <c r="V798" s="38">
+        <f t="shared" ref="V798" si="1659">S798/T798-1</f>
+        <v>0.16656262405604294</v>
+      </c>
+      <c r="W798" s="3">
+        <f t="shared" ref="W798" si="1660">S798-S797</f>
+        <v>-156.83999999999651</v>
+      </c>
+      <c r="X798" s="38">
+        <f t="shared" ref="X798" si="1661">(S798)/S797-1</f>
+        <v>-1.6872179364045836E-3</v>
       </c>
     </row>
     <row r="799" spans="1:24" x14ac:dyDescent="0.35">
@@ -75880,7 +75951,7 @@
       </c>
       <c r="F5" s="28">
         <f ca="1">D5/D8</f>
-        <v>10.934999999999999</v>
+        <v>9.9409090909090896</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -75896,7 +75967,7 @@
       </c>
       <c r="F6" s="4">
         <f ca="1">D6/D8</f>
-        <v>99.655000000000001</v>
+        <v>90.595454545454558</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -75905,7 +75976,7 @@
       </c>
       <c r="D8" s="5">
         <f ca="1">DAY(TODAY())</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="52"/>
     </row>

--- a/Fund Calculator.xlsx
+++ b/Fund Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchoi02\Desktop\Github\Fund_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EFDE9A-996C-4486-AA9E-26452B99CA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943850C7-F462-4F09-9A97-66619E1FB5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="4" activeTab="4" xr2:uid="{CC186723-87AC-486E-8944-9BF126EE79E9}"/>
   </bookViews>
@@ -8402,7 +8402,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8449,7 +8449,7 @@
         <v>18.347999999999999</v>
       </c>
       <c r="C2" s="78">
-        <v>13.81</v>
+        <v>13.99</v>
       </c>
       <c r="D2" s="78">
         <v>189</v>
@@ -8460,7 +8460,7 @@
       </c>
       <c r="F2" s="78">
         <f>D2*C2</f>
-        <v>2610.09</v>
+        <v>2644.11</v>
       </c>
       <c r="H2" s="33">
         <v>44957</v>
@@ -8474,7 +8474,7 @@
         <v>8.141</v>
       </c>
       <c r="C3" s="78">
-        <v>4.9800000000000004</v>
+        <v>5.17</v>
       </c>
       <c r="D3" s="78">
         <v>51</v>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F3" s="78">
         <f>D3*C3</f>
-        <v>253.98000000000002</v>
+        <v>263.67</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -8496,7 +8496,7 @@
         <v>15.657</v>
       </c>
       <c r="C4" s="78">
-        <v>7.51</v>
+        <v>7.61</v>
       </c>
       <c r="D4" s="78">
         <v>41</v>
@@ -8507,7 +8507,7 @@
       </c>
       <c r="F4" s="78">
         <f>D4*C4</f>
-        <v>307.90999999999997</v>
+        <v>312.01</v>
       </c>
       <c r="H4" s="95" t="s">
         <v>83</v>
@@ -8521,7 +8521,7 @@
         <v>82.768000000000001</v>
       </c>
       <c r="C5" s="32">
-        <v>81.48</v>
+        <v>83.13</v>
       </c>
       <c r="D5" s="32">
         <v>9</v>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="F5" s="32">
         <f>D5*C5</f>
-        <v>733.32</v>
+        <v>748.17</v>
       </c>
       <c r="H5" s="94" t="s">
         <v>84</v>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="F6" s="78">
         <f>SUM(F2:F5)</f>
-        <v>3905.3</v>
+        <v>3967.96</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -8564,7 +8564,7 @@
       <c r="E7" s="78"/>
       <c r="F7" s="78">
         <f>F6-E6</f>
-        <v>-1364.5119999999997</v>
+        <v>-1301.8519999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -8577,7 +8577,7 @@
       <c r="E8" s="32"/>
       <c r="F8" s="79">
         <f>(F6-E6)/E6</f>
-        <v>-0.25892992008064042</v>
+        <v>-0.24703955283414283</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -8597,7 +8597,7 @@
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A775" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T798" sqref="T798:X798"/>
+      <selection pane="bottomLeft" activeCell="T800" sqref="T800"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -73721,7 +73721,7 @@
         <v>44936</v>
       </c>
       <c r="S775" s="3">
-        <f t="shared" ref="S775:S798" si="1440">B775+K775</f>
+        <f t="shared" ref="S775:S799" si="1440">B775+K775</f>
         <v>90480.23000000001</v>
       </c>
       <c r="T775" s="50">
@@ -75643,11 +75643,82 @@
       <c r="A799" s="37">
         <v>44970</v>
       </c>
+      <c r="B799" s="41">
+        <v>62681.39</v>
+      </c>
+      <c r="C799" s="3">
+        <v>51825.15</v>
+      </c>
+      <c r="D799" s="3">
+        <v>50700.74</v>
+      </c>
+      <c r="E799" s="3">
+        <f t="shared" ref="E799" si="1662">B799-D799</f>
+        <v>11980.650000000001</v>
+      </c>
+      <c r="F799" s="38">
+        <f t="shared" ref="F799" si="1663">B799/D799-1</f>
+        <v>0.23630128475442369</v>
+      </c>
+      <c r="G799" s="41">
+        <f t="shared" ref="G799" si="1664">B799-B798</f>
+        <v>310.58999999999651</v>
+      </c>
+      <c r="H799" s="38">
+        <f t="shared" ref="H799" si="1665">(B799)/B798-1</f>
+        <v>4.9797341063446687E-3</v>
+      </c>
       <c r="J799" s="37">
         <v>44970</v>
       </c>
+      <c r="K799" s="41">
+        <v>30581.65</v>
+      </c>
+      <c r="L799" s="58">
+        <v>28850</v>
+      </c>
+      <c r="M799" s="43">
+        <f t="shared" ref="M799" si="1666">K799-L799</f>
+        <v>1731.6500000000015</v>
+      </c>
+      <c r="N799" s="38">
+        <f t="shared" ref="N799" si="1667">K799/L799-1</f>
+        <v>6.0022530329289392E-2</v>
+      </c>
+      <c r="O799" s="43">
+        <f t="shared" ref="O799" si="1668">K799-K798</f>
+        <v>151.53000000000247</v>
+      </c>
+      <c r="P799" s="38">
+        <f t="shared" ref="P799" si="1669">K799/K798-1</f>
+        <v>4.9796057327411436E-3</v>
+      </c>
       <c r="R799" s="37">
         <v>44970</v>
+      </c>
+      <c r="S799" s="3">
+        <f t="shared" si="1440"/>
+        <v>93263.040000000008</v>
+      </c>
+      <c r="T799" s="43">
+        <f t="shared" ref="T799" si="1670">D799+L799</f>
+        <v>79550.739999999991</v>
+      </c>
+      <c r="U799" s="3">
+        <f t="shared" ref="U799" si="1671">E799+M799</f>
+        <v>13712.300000000003</v>
+      </c>
+      <c r="V799" s="38">
+        <f t="shared" ref="V799" si="1672">S799/T799-1</f>
+        <v>0.17237174663617227</v>
+      </c>
+      <c r="W799" s="3">
+        <f t="shared" ref="W799" si="1673">S799-S798</f>
+        <v>462.1200000000099</v>
+      </c>
+      <c r="X799" s="38">
+        <f t="shared" ref="X799" si="1674">(S799)/S798-1</f>
+        <v>4.9796920116740306E-3</v>
       </c>
     </row>
     <row r="800" spans="1:24" x14ac:dyDescent="0.35">
@@ -75951,7 +76022,7 @@
       </c>
       <c r="F5" s="28">
         <f ca="1">D5/D8</f>
-        <v>9.9409090909090896</v>
+        <v>8.4115384615384592</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -75967,7 +76038,7 @@
       </c>
       <c r="F6" s="4">
         <f ca="1">D6/D8</f>
-        <v>90.595454545454558</v>
+        <v>76.657692307692315</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -75976,7 +76047,7 @@
       </c>
       <c r="D8" s="5">
         <f ca="1">DAY(TODAY())</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F8" s="52"/>
     </row>

--- a/Fund Calculator.xlsx
+++ b/Fund Calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JinCheol Choi\Desktop\Github\Fund_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C33505F-D6B8-49F8-920D-3C02AF84EA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA4D008-D5DA-4E13-99D6-3F0935A1D60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" firstSheet="3" activeTab="5" xr2:uid="{CC186723-87AC-486E-8944-9BF126EE79E9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" firstSheet="3" activeTab="4" xr2:uid="{CC186723-87AC-486E-8944-9BF126EE79E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Pension (before Jan 1, 2022)" sheetId="1" r:id="rId1"/>
@@ -8548,8 +8548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30A076F-2A31-48E2-8878-A835510682FE}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8596,7 +8596,7 @@
         <v>18.347999999999999</v>
       </c>
       <c r="C2" s="78">
-        <v>14.38</v>
+        <v>14.27</v>
       </c>
       <c r="D2" s="78">
         <v>190</v>
@@ -8607,7 +8607,7 @@
       </c>
       <c r="F2" s="78">
         <f>D2*C2</f>
-        <v>2732.2000000000003</v>
+        <v>2711.2999999999997</v>
       </c>
       <c r="H2" s="33">
         <v>44957</v>
@@ -8621,7 +8621,7 @@
         <v>8.141</v>
       </c>
       <c r="C3" s="78">
-        <v>6.01</v>
+        <v>6.37</v>
       </c>
       <c r="D3" s="78">
         <v>55</v>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="F3" s="78">
         <f>D3*C3</f>
-        <v>330.55</v>
+        <v>350.35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -8643,7 +8643,7 @@
         <v>15.657</v>
       </c>
       <c r="C4" s="78">
-        <v>10.11</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D4" s="78">
         <v>41</v>
@@ -8654,7 +8654,7 @@
       </c>
       <c r="F4" s="78">
         <f>D4*C4</f>
-        <v>414.51</v>
+        <v>377.2</v>
       </c>
       <c r="H4" s="95" t="s">
         <v>82</v>
@@ -8668,7 +8668,7 @@
         <v>82.768000000000001</v>
       </c>
       <c r="C5" s="32">
-        <v>85.18</v>
+        <v>78.5</v>
       </c>
       <c r="D5" s="32">
         <v>10</v>
@@ -8679,7 +8679,7 @@
       </c>
       <c r="F5" s="32">
         <f>D5*C5</f>
-        <v>851.80000000000007</v>
+        <v>785</v>
       </c>
       <c r="H5" s="94" t="s">
         <v>83</v>
@@ -8698,7 +8698,7 @@
       </c>
       <c r="F6" s="78">
         <f>SUM(F2:F5)</f>
-        <v>4329.0600000000004</v>
+        <v>4223.8499999999995</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -8711,7 +8711,7 @@
       <c r="E7" s="78"/>
       <c r="F7" s="78">
         <f>F6-E6</f>
-        <v>-1074.4319999999998</v>
+        <v>-1179.6420000000007</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -8724,7 +8724,7 @@
       <c r="E8" s="32"/>
       <c r="F8" s="79">
         <f>(F6-E6)/E6</f>
-        <v>-0.19884030549133777</v>
+        <v>-0.2183110477446808</v>
       </c>
     </row>
   </sheetData>
@@ -8737,9 +8737,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A7CC9E-9876-428D-BF66-37EA5AD968FB}">
   <dimension ref="A1:AC818"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A760" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L775" sqref="L775"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A758" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T804" sqref="T804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -73863,7 +73863,7 @@
         <v>44936</v>
       </c>
       <c r="S775" s="3">
-        <f t="shared" ref="S775:S801" si="1440">B775+K775</f>
+        <f t="shared" ref="S775:S803" si="1440">B775+K775</f>
         <v>90480.23000000001</v>
       </c>
       <c r="T775" s="50">
@@ -75906,15 +75906,15 @@
         <v>1628.7999999999993</v>
       </c>
       <c r="N800" s="38">
-        <f t="shared" ref="N800:N801" si="1680">K800/L800-1</f>
+        <f t="shared" ref="N800" si="1680">K800/L800-1</f>
         <v>5.6457538994800771E-2</v>
       </c>
       <c r="O800" s="43">
-        <f t="shared" ref="O800:O801" si="1681">K800-K799</f>
+        <f t="shared" ref="O800" si="1681">K800-K799</f>
         <v>-102.85000000000218</v>
       </c>
       <c r="P800" s="38">
-        <f t="shared" ref="P800:P801" si="1682">K800/K799-1</f>
+        <f t="shared" ref="P800" si="1682">K800/K799-1</f>
         <v>-3.3631278887830129E-3</v>
       </c>
       <c r="R800" s="37">
@@ -76034,22 +76034,164 @@
       <c r="A802" s="37">
         <v>44973</v>
       </c>
+      <c r="B802" s="41">
+        <v>62413.19</v>
+      </c>
+      <c r="C802" s="3">
+        <v>52075.15</v>
+      </c>
+      <c r="D802" s="3">
+        <v>50950.74</v>
+      </c>
+      <c r="E802" s="3">
+        <f t="shared" ref="E802" si="1688">B802-D802</f>
+        <v>11462.450000000004</v>
+      </c>
+      <c r="F802" s="38">
+        <f t="shared" ref="F802" si="1689">B802/D802-1</f>
+        <v>0.22497121729733482</v>
+      </c>
+      <c r="G802" s="41">
+        <f t="shared" ref="G802" si="1690">B802-B801</f>
+        <v>-183.93000000000029</v>
+      </c>
+      <c r="H802" s="38">
+        <f t="shared" ref="H802" si="1691">(B802)/B801-1</f>
+        <v>-2.9383140949615916E-3</v>
+      </c>
       <c r="J802" s="37">
         <v>44973</v>
       </c>
+      <c r="K802" s="41">
+        <v>30478.75</v>
+      </c>
+      <c r="L802" s="58">
+        <v>29000</v>
+      </c>
+      <c r="M802" s="43">
+        <f t="shared" ref="M802" si="1692">K802-L802</f>
+        <v>1478.75</v>
+      </c>
+      <c r="N802" s="38">
+        <f t="shared" ref="N802" si="1693">K802/L802-1</f>
+        <v>5.099137931034492E-2</v>
+      </c>
+      <c r="O802" s="43">
+        <f t="shared" ref="O802" si="1694">K802-K801</f>
+        <v>-89.819999999999709</v>
+      </c>
+      <c r="P802" s="38">
+        <f t="shared" ref="P802" si="1695">K802/K801-1</f>
+        <v>-2.9383121290920133E-3</v>
+      </c>
       <c r="R802" s="37">
         <v>44973</v>
+      </c>
+      <c r="S802" s="3">
+        <f t="shared" si="1440"/>
+        <v>92891.94</v>
+      </c>
+      <c r="T802" s="43">
+        <f t="shared" ref="T802" si="1696">D802+L802</f>
+        <v>79950.739999999991</v>
+      </c>
+      <c r="U802" s="3">
+        <f t="shared" ref="U802" si="1697">E802+M802</f>
+        <v>12941.200000000004</v>
+      </c>
+      <c r="V802" s="38">
+        <f t="shared" ref="V802" si="1698">S802/T802-1</f>
+        <v>0.16186466816942557</v>
+      </c>
+      <c r="W802" s="3">
+        <f t="shared" ref="W802" si="1699">S802-S801</f>
+        <v>-273.75</v>
+      </c>
+      <c r="X802" s="38">
+        <f t="shared" ref="X802" si="1700">(S802)/S801-1</f>
+        <v>-2.938313449940666E-3</v>
       </c>
     </row>
     <row r="803" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A803" s="37">
         <v>44974</v>
       </c>
+      <c r="B803" s="41">
+        <v>62379.24</v>
+      </c>
+      <c r="C803" s="3">
+        <v>52075.15</v>
+      </c>
+      <c r="D803" s="3">
+        <v>50950.74</v>
+      </c>
+      <c r="E803" s="3">
+        <f t="shared" ref="E803" si="1701">B803-D803</f>
+        <v>11428.5</v>
+      </c>
+      <c r="F803" s="38">
+        <f t="shared" ref="F803" si="1702">B803/D803-1</f>
+        <v>0.22430488742656141</v>
+      </c>
+      <c r="G803" s="41">
+        <f t="shared" ref="G803" si="1703">B803-B802</f>
+        <v>-33.950000000004366</v>
+      </c>
+      <c r="H803" s="38">
+        <f t="shared" ref="H803" si="1704">(B803)/B802-1</f>
+        <v>-5.4395553247643669E-4</v>
+      </c>
       <c r="J803" s="37">
         <v>44974</v>
       </c>
+      <c r="K803" s="41">
+        <v>30462.17</v>
+      </c>
+      <c r="L803" s="58">
+        <v>29000</v>
+      </c>
+      <c r="M803" s="43">
+        <f t="shared" ref="M803" si="1705">K803-L803</f>
+        <v>1462.1699999999983</v>
+      </c>
+      <c r="N803" s="38">
+        <f t="shared" ref="N803" si="1706">K803/L803-1</f>
+        <v>5.0419655172413647E-2</v>
+      </c>
+      <c r="O803" s="43">
+        <f t="shared" ref="O803" si="1707">K803-K802</f>
+        <v>-16.580000000001746</v>
+      </c>
+      <c r="P803" s="38">
+        <f t="shared" ref="P803" si="1708">K803/K802-1</f>
+        <v>-5.4398556371249018E-4</v>
+      </c>
       <c r="R803" s="37">
         <v>44974</v>
+      </c>
+      <c r="S803" s="3">
+        <f t="shared" si="1440"/>
+        <v>92841.41</v>
+      </c>
+      <c r="T803" s="43">
+        <f t="shared" ref="T803" si="1709">D803+L803</f>
+        <v>79950.739999999991</v>
+      </c>
+      <c r="U803" s="3">
+        <f t="shared" ref="U803" si="1710">E803+M803</f>
+        <v>12890.669999999998</v>
+      </c>
+      <c r="V803" s="38">
+        <f t="shared" ref="V803" si="1711">S803/T803-1</f>
+        <v>0.16123265400670483</v>
+      </c>
+      <c r="W803" s="3">
+        <f t="shared" ref="W803" si="1712">S803-S802</f>
+        <v>-50.529999999998836</v>
+      </c>
+      <c r="X803" s="38">
+        <f t="shared" ref="X803" si="1713">(S803)/S802-1</f>
+        <v>-5.4396538601730882E-4</v>
       </c>
     </row>
     <row r="804" spans="1:24" x14ac:dyDescent="0.45">
@@ -76309,7 +76451,7 @@
       </c>
       <c r="F5" s="28">
         <f ca="1">D5/D8</f>
-        <v>6.8343749999999988</v>
+        <v>6.0749999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -76325,7 +76467,7 @@
       </c>
       <c r="F6" s="4">
         <f ca="1">D6/D8</f>
-        <v>62.284375000000004</v>
+        <v>55.363888888888894</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -76334,7 +76476,7 @@
       </c>
       <c r="D8" s="5">
         <f ca="1">DAY(TODAY())</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F8" s="52"/>
     </row>

--- a/Fund Calculator.xlsx
+++ b/Fund Calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JinCheol Choi\Desktop\Github\Fund_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA4D008-D5DA-4E13-99D6-3F0935A1D60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E12AC03-99E6-4C7C-82E9-75829B3D51FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" firstSheet="3" activeTab="4" xr2:uid="{CC186723-87AC-486E-8944-9BF126EE79E9}"/>
+    <workbookView xWindow="14317" yWindow="0" windowWidth="14565" windowHeight="15563" firstSheet="3" activeTab="4" xr2:uid="{CC186723-87AC-486E-8944-9BF126EE79E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Pension (before Jan 1, 2022)" sheetId="1" r:id="rId1"/>
@@ -8549,7 +8549,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8596,7 +8596,7 @@
         <v>18.347999999999999</v>
       </c>
       <c r="C2" s="78">
-        <v>14.27</v>
+        <v>13.85</v>
       </c>
       <c r="D2" s="78">
         <v>190</v>
@@ -8607,10 +8607,10 @@
       </c>
       <c r="F2" s="78">
         <f>D2*C2</f>
-        <v>2711.2999999999997</v>
+        <v>2631.5</v>
       </c>
       <c r="H2" s="33">
-        <v>44957</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -8621,7 +8621,7 @@
         <v>8.141</v>
       </c>
       <c r="C3" s="78">
-        <v>6.37</v>
+        <v>5.75</v>
       </c>
       <c r="D3" s="78">
         <v>55</v>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="F3" s="78">
         <f>D3*C3</f>
-        <v>350.35</v>
+        <v>316.25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -8643,7 +8643,7 @@
         <v>15.657</v>
       </c>
       <c r="C4" s="78">
-        <v>9.1999999999999993</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="D4" s="78">
         <v>41</v>
@@ -8654,7 +8654,7 @@
       </c>
       <c r="F4" s="78">
         <f>D4*C4</f>
-        <v>377.2</v>
+        <v>347.27000000000004</v>
       </c>
       <c r="H4" s="95" t="s">
         <v>82</v>
@@ -8668,7 +8668,7 @@
         <v>82.768000000000001</v>
       </c>
       <c r="C5" s="32">
-        <v>78.5</v>
+        <v>76.77</v>
       </c>
       <c r="D5" s="32">
         <v>10</v>
@@ -8679,7 +8679,7 @@
       </c>
       <c r="F5" s="32">
         <f>D5*C5</f>
-        <v>785</v>
+        <v>767.69999999999993</v>
       </c>
       <c r="H5" s="94" t="s">
         <v>83</v>
@@ -8698,7 +8698,7 @@
       </c>
       <c r="F6" s="78">
         <f>SUM(F2:F5)</f>
-        <v>4223.8499999999995</v>
+        <v>4062.72</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -8711,7 +8711,7 @@
       <c r="E7" s="78"/>
       <c r="F7" s="78">
         <f>F6-E6</f>
-        <v>-1179.6420000000007</v>
+        <v>-1340.7720000000004</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -8724,7 +8724,7 @@
       <c r="E8" s="32"/>
       <c r="F8" s="79">
         <f>(F6-E6)/E6</f>
-        <v>-0.2183110477446808</v>
+        <v>-0.24813065328865119</v>
       </c>
     </row>
   </sheetData>
@@ -8738,8 +8738,8 @@
   <dimension ref="A1:AC818"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A758" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T804" sqref="T804"/>
+      <pane ySplit="3" topLeftCell="A787" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C820" sqref="C820"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -73863,7 +73863,7 @@
         <v>44936</v>
       </c>
       <c r="S775" s="3">
-        <f t="shared" ref="S775:S803" si="1440">B775+K775</f>
+        <f t="shared" ref="S775:S805" si="1440">B775+K775</f>
         <v>90480.23000000001</v>
       </c>
       <c r="T775" s="50">
@@ -76198,22 +76198,164 @@
       <c r="A804" s="37">
         <v>44977</v>
       </c>
+      <c r="B804" s="41">
+        <v>62379.24</v>
+      </c>
+      <c r="C804" s="3">
+        <v>52075.15</v>
+      </c>
+      <c r="D804" s="3">
+        <v>50950.74</v>
+      </c>
+      <c r="E804" s="3">
+        <f t="shared" ref="E804" si="1714">B804-D804</f>
+        <v>11428.5</v>
+      </c>
+      <c r="F804" s="38">
+        <f t="shared" ref="F804" si="1715">B804/D804-1</f>
+        <v>0.22430488742656141</v>
+      </c>
+      <c r="G804" s="41">
+        <f t="shared" ref="G804" si="1716">B804-B803</f>
+        <v>0</v>
+      </c>
+      <c r="H804" s="38">
+        <f t="shared" ref="H804" si="1717">(B804)/B803-1</f>
+        <v>0</v>
+      </c>
       <c r="J804" s="37">
         <v>44977</v>
       </c>
+      <c r="K804" s="41">
+        <v>30462.17</v>
+      </c>
+      <c r="L804" s="58">
+        <v>29000</v>
+      </c>
+      <c r="M804" s="43">
+        <f t="shared" ref="M804" si="1718">K804-L804</f>
+        <v>1462.1699999999983</v>
+      </c>
+      <c r="N804" s="38">
+        <f t="shared" ref="N804" si="1719">K804/L804-1</f>
+        <v>5.0419655172413647E-2</v>
+      </c>
+      <c r="O804" s="43">
+        <f t="shared" ref="O804" si="1720">K804-K803</f>
+        <v>0</v>
+      </c>
+      <c r="P804" s="38">
+        <f t="shared" ref="P804" si="1721">K804/K803-1</f>
+        <v>0</v>
+      </c>
       <c r="R804" s="37">
         <v>44977</v>
+      </c>
+      <c r="S804" s="3">
+        <f t="shared" si="1440"/>
+        <v>92841.41</v>
+      </c>
+      <c r="T804" s="43">
+        <f t="shared" ref="T804" si="1722">D804+L804</f>
+        <v>79950.739999999991</v>
+      </c>
+      <c r="U804" s="3">
+        <f t="shared" ref="U804" si="1723">E804+M804</f>
+        <v>12890.669999999998</v>
+      </c>
+      <c r="V804" s="38">
+        <f t="shared" ref="V804" si="1724">S804/T804-1</f>
+        <v>0.16123265400670483</v>
+      </c>
+      <c r="W804" s="3">
+        <f t="shared" ref="W804" si="1725">S804-S803</f>
+        <v>0</v>
+      </c>
+      <c r="X804" s="38">
+        <f t="shared" ref="X804" si="1726">(S804)/S803-1</f>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A805" s="37">
         <v>44978</v>
       </c>
+      <c r="B805" s="41">
+        <v>61731.8</v>
+      </c>
+      <c r="C805" s="3">
+        <v>52075.15</v>
+      </c>
+      <c r="D805" s="3">
+        <v>50950.74</v>
+      </c>
+      <c r="E805" s="3">
+        <f t="shared" ref="E805" si="1727">B805-D805</f>
+        <v>10781.060000000005</v>
+      </c>
+      <c r="F805" s="38">
+        <f t="shared" ref="F805" si="1728">B805/D805-1</f>
+        <v>0.21159771182911191</v>
+      </c>
+      <c r="G805" s="41">
+        <f t="shared" ref="G805" si="1729">B805-B804</f>
+        <v>-647.43999999999505</v>
+      </c>
+      <c r="H805" s="38">
+        <f t="shared" ref="H805" si="1730">(B805)/B804-1</f>
+        <v>-1.0379094070398942E-2</v>
+      </c>
       <c r="J805" s="37">
         <v>44978</v>
       </c>
+      <c r="K805" s="41">
+        <v>30146</v>
+      </c>
+      <c r="L805" s="58">
+        <v>29000</v>
+      </c>
+      <c r="M805" s="43">
+        <f t="shared" ref="M805" si="1731">K805-L805</f>
+        <v>1146</v>
+      </c>
+      <c r="N805" s="38">
+        <f t="shared" ref="N805" si="1732">K805/L805-1</f>
+        <v>3.9517241379310342E-2</v>
+      </c>
+      <c r="O805" s="43">
+        <f t="shared" ref="O805" si="1733">K805-K804</f>
+        <v>-316.16999999999825</v>
+      </c>
+      <c r="P805" s="38">
+        <f t="shared" ref="P805" si="1734">K805/K804-1</f>
+        <v>-1.0379102998899881E-2</v>
+      </c>
       <c r="R805" s="37">
         <v>44978</v>
+      </c>
+      <c r="S805" s="3">
+        <f t="shared" si="1440"/>
+        <v>91877.8</v>
+      </c>
+      <c r="T805" s="43">
+        <f t="shared" ref="T805" si="1735">D805+L805</f>
+        <v>79950.739999999991</v>
+      </c>
+      <c r="U805" s="3">
+        <f t="shared" ref="U805" si="1736">E805+M805</f>
+        <v>11927.060000000005</v>
+      </c>
+      <c r="V805" s="38">
+        <f t="shared" ref="V805" si="1737">S805/T805-1</f>
+        <v>0.14918010765128642</v>
+      </c>
+      <c r="W805" s="3">
+        <f t="shared" ref="W805" si="1738">S805-S804</f>
+        <v>-963.61000000000058</v>
+      </c>
+      <c r="X805" s="38">
+        <f t="shared" ref="X805" si="1739">(S805)/S804-1</f>
+        <v>-1.0379096999927118E-2</v>
       </c>
     </row>
     <row r="806" spans="1:24" x14ac:dyDescent="0.45">
@@ -76451,7 +76593,7 @@
       </c>
       <c r="F5" s="28">
         <f ca="1">D5/D8</f>
-        <v>6.0749999999999993</v>
+        <v>5.2071428571428564</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -76467,7 +76609,7 @@
       </c>
       <c r="F6" s="4">
         <f ca="1">D6/D8</f>
-        <v>55.363888888888894</v>
+        <v>47.454761904761909</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -76476,7 +76618,7 @@
       </c>
       <c r="D8" s="5">
         <f ca="1">DAY(TODAY())</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F8" s="52"/>
     </row>
